--- a/Entrega1/Tablas.xlsx
+++ b/Entrega1/Tablas.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56961\Desktop\Universidad\2021-1\BBDD\BBDD_84\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56961\Desktop\Universidad\2021-1\BBDD\BBDD_84\Entrega1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A909201E-68B6-4641-933B-2FFD81BBB63C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C20876-8A16-4FDC-BB02-7EB87A6F3D8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1130" yWindow="3740" windowWidth="2370" windowHeight="560" xr2:uid="{00351CE1-035F-42EE-ADB9-235D5ED1FC37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00351CE1-035F-42EE-ADB9-235D5ED1FC37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$5:$G$30</definedName>
-    <definedName name="Print_Area" localSheetId="0">Hoja1!$A$5:$G$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$5:$H$31</definedName>
+    <definedName name="Print_Area" localSheetId="0">Hoja1!$B$5:$H$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Unidades</t>
   </si>
@@ -100,7 +100,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">comunas </t>
+      <t xml:space="preserve">patente </t>
     </r>
     <r>
       <rPr>
@@ -116,6 +116,316 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">estado </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(varchar)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tipo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(varchar)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">categoria </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(varchar)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nombre </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(varchar)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sexo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(varchar)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">edad </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">alcance </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">compartimentos </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">volumen </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">toneladas </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">calificacion </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">licencia </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(varchar)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">did </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fecha </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(date)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">origen </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(varchar)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">destino </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(varchar)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cid </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">capacidad </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
+  </si>
+  <si>
+    <t>Comunas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">comuna </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(varchar)</t>
+    </r>
+  </si>
+  <si>
+    <t>AsociacionVR</t>
+  </si>
+  <si>
+    <r>
       <t>rut_jefe</t>
     </r>
     <r>
@@ -127,12 +437,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (int)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">patente </t>
+      <t xml:space="preserve"> (varchar)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rut </t>
     </r>
     <r>
       <rPr>
@@ -144,342 +454,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>(varchar)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">estado </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(varchar)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">tipo </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(varchar)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">categoria </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(varchar)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ruts </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(lista)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">rut </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(int)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nombre </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(varchar)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sexo </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(varchar)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">edad </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(int)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">alcance </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(int)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">compartimentos </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(int)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">volumen </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(int)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">toneladas </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(int)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">calificacion </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(int)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">patentes </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(lista)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">licencia </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(varchar)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">did </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(int)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fecha </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(date)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">origen </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(varchar)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">destino </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(varchar)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">cid </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(int)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">capacidad </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(int)</t>
     </r>
   </si>
 </sst>
@@ -512,7 +486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,8 +517,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -604,20 +584,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,19 +615,31 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -959,220 +959,249 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:G30"/>
+  <dimension ref="B5:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="66" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="8" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="E13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="F25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="D13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>33</v>
+      <c r="G31" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="D13:F13"/>
+  <mergeCells count="11">
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" orientation="landscape" r:id="rId1"/>
